--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43091,6 +43091,43 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1214" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43128,6 +43128,43 @@
         </is>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43165,6 +43165,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>101000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,6 +43200,41 @@
         <v>101000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43235,6 +43235,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>99000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43270,6 +43270,41 @@
         <v>99000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>62500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43305,6 +43305,41 @@
         <v>62500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>26100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43340,6 +43340,41 @@
         <v>26100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,41 @@
         <v>4700</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,43 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,41 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,41 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>91000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,76 @@
         <v>91000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>254000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,78 @@
         <v>254000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>602200</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43659,6 +43659,41 @@
         </is>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43694,6 +43694,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>135000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,41 @@
         <v>135000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43764,6 +43764,41 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>775200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +43799,78 @@
         <v>775200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>153900</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43871,6 +43871,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>166000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43906,6 +43906,41 @@
         <v>166000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>726600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2406"/>
+  <dimension ref="A1:I2407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84856,6 +84856,41 @@
         <v>726600</v>
       </c>
     </row>
+    <row r="2407">
+      <c r="A2407" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2407" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2407" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2407" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2407" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2407" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2407" t="n">
+        <v>576000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2407"/>
+  <dimension ref="A1:I2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84891,6 +84891,41 @@
         <v>576000</v>
       </c>
     </row>
+    <row r="2408">
+      <c r="A2408" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2408" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2408" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2408" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2408" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2408" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2408" t="n">
+        <v>148000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2408"/>
+  <dimension ref="A1:I2409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84926,6 +84926,41 @@
         <v>148000</v>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2409" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2409" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2409" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2409" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2409" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2409" t="n">
+        <v>478500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2409"/>
+  <dimension ref="A1:I2410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84961,6 +84961,41 @@
         <v>478500</v>
       </c>
     </row>
+    <row r="2410">
+      <c r="A2410" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2410" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2410" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2410" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2410" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2410" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2410" t="n">
+        <v>609500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2410"/>
+  <dimension ref="A1:I2411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84996,6 +84996,41 @@
         <v>609500</v>
       </c>
     </row>
+    <row r="2411">
+      <c r="A2411" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2411" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2411" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2411" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2411" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2411" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2411" t="n">
+        <v>797900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2411"/>
+  <dimension ref="A1:I2412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85031,6 +85031,41 @@
         <v>797900</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2412" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2412" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2412" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2412" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2412" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2412" t="n">
+        <v>250000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2412"/>
+  <dimension ref="A1:I2413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85066,6 +85066,41 @@
         <v>250000</v>
       </c>
     </row>
+    <row r="2413">
+      <c r="A2413" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2413" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2413" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2413" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2413" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2413" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2413" t="n">
+        <v>210000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2413"/>
+  <dimension ref="A1:I2414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85101,6 +85101,41 @@
         <v>210000</v>
       </c>
     </row>
+    <row r="2414">
+      <c r="A2414" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2414" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2414" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2414" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2414" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2414" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2414" t="n">
+        <v>107000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2414"/>
+  <dimension ref="A1:I2415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85136,6 +85136,41 @@
         <v>107000</v>
       </c>
     </row>
+    <row r="2415">
+      <c r="A2415" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2415" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2415" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2415" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2415" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2415" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2415" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2415" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2415" t="n">
+        <v>580000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2415"/>
+  <dimension ref="A1:I2416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85171,6 +85171,41 @@
         <v>580000</v>
       </c>
     </row>
+    <row r="2416">
+      <c r="A2416" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2416" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2416" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2416" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2416" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2416" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2416" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2416" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I2416" t="n">
+        <v>1477800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2416"/>
+  <dimension ref="A1:I2417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85206,6 +85206,41 @@
         <v>1477800</v>
       </c>
     </row>
+    <row r="2417">
+      <c r="A2417" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2417" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2417" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2417" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2417" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2417" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2417" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2417" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2417" t="n">
+        <v>209800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2417"/>
+  <dimension ref="A1:I2418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85241,6 +85241,41 @@
         <v>209800</v>
       </c>
     </row>
+    <row r="2418">
+      <c r="A2418" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2418" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2418" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2418" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2418" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2418" t="n">
+        <v>176000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2418"/>
+  <dimension ref="A1:I2419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85276,6 +85276,41 @@
         <v>176000</v>
       </c>
     </row>
+    <row r="2419">
+      <c r="A2419" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2419" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2419" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2419" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2419" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2419" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2419" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2419" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2419" t="n">
+        <v>371000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2419"/>
+  <dimension ref="A1:I2420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85311,6 +85311,41 @@
         <v>371000</v>
       </c>
     </row>
+    <row r="2420">
+      <c r="A2420" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2420" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2420" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2420" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2420" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2420" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2420" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2420" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2420" t="n">
+        <v>240800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/9717.xlsx
+++ b/data/9717.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2420"/>
+  <dimension ref="A1:I2421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85346,6 +85346,41 @@
         <v>240800</v>
       </c>
     </row>
+    <row r="2421">
+      <c r="A2421" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2421" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2421" t="inlineStr">
+        <is>
+          <t>9717</t>
+        </is>
+      </c>
+      <c r="D2421" t="inlineStr">
+        <is>
+          <t>SYCAL</t>
+        </is>
+      </c>
+      <c r="E2421" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2421" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2421" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2421" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2421" t="n">
+        <v>671600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
